--- a/biology/Médecine/Adrian_Stokes_(pathologiste)/Adrian_Stokes_(pathologiste).xlsx
+++ b/biology/Médecine/Adrian_Stokes_(pathologiste)/Adrian_Stokes_(pathologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adrian Stokes, né le 9 février 1887 à Lausanne et mort le 19 septembre 1927 à Lagos, est un médecin anglo-irlandais, pathologiste, découvreur en 1927 de la preuve de la transmission de la fièvre jaune entre singes. Il meurt en 1927 de la fièvre jaune après l'avoir contractée à la suite de ses recherches[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adrian Stokes, né le 9 février 1887 à Lausanne et mort le 19 septembre 1927 à Lagos, est un médecin anglo-irlandais, pathologiste, découvreur en 1927 de la preuve de la transmission de la fièvre jaune entre singes. Il meurt en 1927 de la fièvre jaune après l'avoir contractée à la suite de ses recherches.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il réalise ses études à Dublin, au Trinity College ou il obtient son doctorat en médecine en 1911[1].
-Il sert dans le Royal Army Medical Corps pendant la première guerre mondiale[1].
-En 1920, il visite Lagos pour étudier la fièvre jaune, afin de tester la théorie de Hideyo Noguchi selon laquelle la maladie est transmise par le bacille Leptospira icteroides[1].
-Stokes réussi en 1927 lors de sa seconde visite à prouver la transmission de la maladie entre des singes, sans arriver à prouver la transmission du bacille suggéré par Hideyo Noguchi. À la suite de ses travaux, il contracte la maladie et en meurt en 1927[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réalise ses études à Dublin, au Trinity College ou il obtient son doctorat en médecine en 1911.
+Il sert dans le Royal Army Medical Corps pendant la première guerre mondiale.
+En 1920, il visite Lagos pour étudier la fièvre jaune, afin de tester la théorie de Hideyo Noguchi selon laquelle la maladie est transmise par le bacille Leptospira icteroides.
+Stokes réussi en 1927 lors de sa seconde visite à prouver la transmission de la maladie entre des singes, sans arriver à prouver la transmission du bacille suggéré par Hideyo Noguchi. À la suite de ses travaux, il contracte la maladie et en meurt en 1927.
 </t>
         </is>
       </c>
